--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -1,96 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProjects\AIxTest-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF756E6F-D024-F543-BF1B-5BFCE872F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2543546-9E54-4A5D-92A1-DBAB4BE6B9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>小数</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>字符串</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>功能缺陷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>用户信息修改</t>
+  </si>
+  <si>
+    <t>用户注销</t>
+  </si>
+  <si>
+    <t>数据导入</t>
+  </si>
+  <si>
+    <t>数据导出</t>
+  </si>
+  <si>
+    <t>报表生成</t>
+  </si>
+  <si>
+    <t>图表展示</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>通知设置</t>
+  </si>
+  <si>
+    <t>任务管理</t>
+  </si>
+  <si>
+    <t>日程安排</t>
+  </si>
+  <si>
+    <t>邮件发送</t>
+  </si>
+  <si>
+    <t>缺陷总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重缺陷数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重缺陷修复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,21 +121,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +159,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -172,7 +171,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,7 +188,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -219,29 +218,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -271,23 +253,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,48 +404,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44844</v>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>